--- a/rollen/domain/grade/grade_categorization.xlsx
+++ b/rollen/domain/grade/grade_categorization.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NutCloudSync\code\rollen\rollen\grade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NutCloudSync\code\rollen\rollen\domain\grade\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="34035" yWindow="255" windowWidth="17550" windowHeight="7230"/>
+    <workbookView xWindow="34032" yWindow="252" windowWidth="17556" windowHeight="7236"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="472">
   <si>
     <t>MRTRG00202</t>
   </si>
@@ -195,9 +195,6 @@
   </si>
   <si>
     <t>SS400-P</t>
-  </si>
-  <si>
-    <t>MGW270</t>
   </si>
   <si>
     <t>MRDJG35002</t>
@@ -1485,6 +1482,14 @@
   </si>
   <si>
     <t>冷轧基料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGW270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MGW270H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2005,84 +2010,84 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:Q1"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="12" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="14" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="12.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="11" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="17" customWidth="1"/>
-    <col min="10" max="10" width="12.25" style="11" customWidth="1"/>
-    <col min="11" max="11" width="12.375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="11" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="11" customWidth="1"/>
-    <col min="14" max="14" width="13.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.125" style="25" customWidth="1"/>
-    <col min="16" max="16" width="18.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="17" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" style="11" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" style="25" customWidth="1"/>
+    <col min="16" max="16" width="18.6640625" style="25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="K1" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>341</v>
-      </c>
       <c r="N1" s="18" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O1" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="P1" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="P1" s="24" t="s">
-        <v>438</v>
-      </c>
       <c r="Q1" s="24" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2093,7 +2098,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>3</v>
@@ -2111,31 +2116,31 @@
         <v>55</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" s="11" t="s">
         <v>33</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="Q2" s="25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -2143,10 +2148,10 @@
         <v>42</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="14" t="s">
         <v>7</v>
@@ -2161,42 +2166,42 @@
         <v>15</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K3" s="11" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M3" s="11" t="s">
         <v>37</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O3" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="Q3" s="25" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>38</v>
@@ -2205,7 +2210,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -2214,51 +2219,51 @@
         <v>19</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="K4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>40</v>
       </c>
       <c r="N4" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O4" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q4" s="25" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>58</v>
+        <v>470</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" s="14" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>23</v>
@@ -2267,48 +2272,48 @@
         <v>23</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>48</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" s="11" t="s">
         <v>43</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Q5" s="25" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>27</v>
@@ -2317,42 +2322,42 @@
         <v>27</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M6" s="11" t="s">
         <v>47</v>
       </c>
       <c r="N6" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>30</v>
@@ -2361,42 +2366,42 @@
         <v>30</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M7" s="11" t="s">
         <v>51</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>34</v>
@@ -2405,39 +2410,42 @@
         <v>34</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="B9" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="D9" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>44</v>
@@ -2446,69 +2454,69 @@
         <v>44</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J9" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>125</v>
-      </c>
       <c r="P9" s="25" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="L10" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H10" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>110</v>
-      </c>
       <c r="M10" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N10" s="19" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
@@ -2516,202 +2524,202 @@
         <v>28</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K11" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L12" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="N14" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="M12" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="N12" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="P12" s="25" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="P13" s="25" t="s">
+      <c r="P14" s="25" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="N14" s="19" t="s">
+      <c r="D15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="P14" s="25" t="s">
+      <c r="F15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="P15" s="25" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="N15" s="19" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="P15" s="25" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>117</v>
-      </c>
       <c r="E16" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N16" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.15">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>5</v>
@@ -2720,27 +2728,27 @@
         <v>5</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N17" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>9</v>
@@ -2749,53 +2757,53 @@
         <v>9</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="N18" s="20" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="P18" s="25" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="25" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="P19" s="25" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>53</v>
@@ -2807,711 +2815,711 @@
         <v>41</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.15">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>57</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N21" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.15">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D22" s="15" t="s">
         <v>49</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>26</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="L22" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D23" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H23" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="N22" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="P22" s="25" t="s">
+      <c r="L23" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="P23" s="25" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D23" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="N23" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="P23" s="25" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D24" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L24" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N24" s="22" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.15">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D25" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L25" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.15">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D26" s="15" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L26" s="11" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D28" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.15">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D31" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D32" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F32" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D34" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D31" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="G34" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D35" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D36" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D37" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="D32" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="G38" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D39" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D42" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D43" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D44" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D33" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D34" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D35" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D36" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D37" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D38" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D39" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D40" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D41" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D42" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D43" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.15">
-      <c r="D44" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="F44" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D45" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D46" s="14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D47" s="14" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="4:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D48" s="14" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E48" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E49" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E49" s="14" t="s">
+      <c r="F49" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E50" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E50" s="14" t="s">
-        <v>210</v>
-      </c>
       <c r="F50" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E52" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E52" s="14" t="s">
+      <c r="F52" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E53" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="G52" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E53" s="14" t="s">
+      <c r="G53" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E54" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="G53" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E54" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>294</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E56" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="F55" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E56" s="14" t="s">
+      <c r="F56" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E57" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E57" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="F57" s="9" t="s">
+      <c r="G57" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E58" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="G57" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E58" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="F58" s="9" t="s">
+      <c r="G58" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E59" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="F59" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E59" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E60" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F60" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E60" s="14" t="s">
+      <c r="G60" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E61" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="F61" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E61" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>308</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E62" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="63" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E63" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F62" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E63" s="14" t="s">
+      <c r="F63" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E64" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F63" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.15">
-      <c r="E64" s="14" t="s">
+      <c r="F64" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E65" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="F64" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E65" s="14" t="s">
-        <v>235</v>
-      </c>
       <c r="F65" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="66" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E66" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E66" s="14" t="s">
+    <row r="67" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E67" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="F66" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="67" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E67" s="14" t="s">
+      <c r="F67" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E68" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="68" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E68" s="14" t="s">
-        <v>239</v>
-      </c>
       <c r="F68" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E69" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F69" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="G68" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E69" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>352</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H69" s="12"/>
       <c r="J69" s="12"/>
@@ -3519,15 +3527,15 @@
       <c r="L69" s="12"/>
       <c r="M69" s="12"/>
     </row>
-    <row r="70" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="70" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E70" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H70" s="12"/>
       <c r="J70" s="12"/>
@@ -3535,15 +3543,15 @@
       <c r="L70" s="12"/>
       <c r="M70" s="12"/>
     </row>
-    <row r="71" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="71" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E71" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H71" s="12"/>
       <c r="J71" s="12"/>
@@ -3551,15 +3559,15 @@
       <c r="L71" s="12"/>
       <c r="M71" s="12"/>
     </row>
-    <row r="72" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="72" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E72" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H72" s="12"/>
       <c r="J72" s="12"/>
@@ -3567,48 +3575,48 @@
       <c r="L72" s="12"/>
       <c r="M72" s="12"/>
     </row>
-    <row r="73" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="73" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E73" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="74" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E74" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E74" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="75" spans="5:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="75" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E75" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="76" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E76" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>403</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="76" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E76" s="14" t="s">
-        <v>273</v>
-      </c>
       <c r="F76" s="8" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H76" s="12"/>
       <c r="J76" s="12"/>
@@ -3616,15 +3624,15 @@
       <c r="L76" s="12"/>
       <c r="M76" s="12"/>
     </row>
-    <row r="77" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="77" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E77" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H77" s="12"/>
       <c r="J77" s="12"/>
@@ -3632,15 +3640,15 @@
       <c r="L77" s="12"/>
       <c r="M77" s="12"/>
     </row>
-    <row r="78" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="78" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E78" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H78" s="12"/>
       <c r="J78" s="12"/>
@@ -3648,15 +3656,15 @@
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
     </row>
-    <row r="79" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="79" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E79" s="14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H79" s="12"/>
       <c r="J79" s="12"/>
@@ -3664,15 +3672,15 @@
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
     </row>
-    <row r="80" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="80" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E80" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H80" s="12"/>
       <c r="J80" s="12"/>
@@ -3680,12 +3688,12 @@
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
     </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="81" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E81" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>40</v>
@@ -3696,371 +3704,371 @@
       <c r="L81" s="12"/>
       <c r="M81" s="12"/>
     </row>
-    <row r="82" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="82" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E82" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="83" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="83" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E83" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="84" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E84" s="16" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="5:13" x14ac:dyDescent="0.15">
+    <row r="85" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E85" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="5:13" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="86" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E86" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F86" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E87" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E88" s="14" t="s">
+        <v>415</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="89" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E89" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="90" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E90" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E91" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E92" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="93" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E93" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="94" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E94" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="95" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E95" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G86" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E87" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E88" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E89" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E90" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E91" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E92" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E93" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E94" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.15">
-      <c r="E95" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="96" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E96" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.15">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.15">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="15" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E104" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E105" s="15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E106" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E107" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E108" s="14" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="14" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E109" s="14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E110" s="14" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="14" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E111" s="14" t="s">
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="14" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E112" s="14" t="s">
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="14" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E113" s="14" t="s">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="14" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E114" s="14" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E115" s="14" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="14" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="14" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="14" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119" s="14" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E120" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E121" s="14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="14" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E116" s="14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E117" s="14" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E118" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E119" s="14" t="s">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E123" s="14" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E124" s="14" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E125" s="14" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E126" s="14" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E127" s="14" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E120" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E121" s="14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E122" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E123" s="14" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E124" s="14" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E125" s="14" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E126" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E127" s="14" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E128" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E129" s="14" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E130" s="14" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E130" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E131" s="14" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E132" s="14" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E132" s="14" t="s">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E133" s="14" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E133" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E134" s="14" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E135" s="14" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E135" s="14" t="s">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E136" s="14" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E136" s="14" t="s">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E137" s="14" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E137" s="14" t="s">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E138" s="14" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E138" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E139" s="14" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E140" s="14" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.15">
-      <c r="E140" s="14" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E141" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E142" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E143" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -4076,7 +4084,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4089,7 +4097,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
